--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/0_fold/5.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/0_fold/5.xlsx
@@ -479,13 +479,13 @@
         <v>-0.110675570428247</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.917512270892024</v>
+        <v>-1.877881455078966</v>
       </c>
       <c r="F2" t="n">
-        <v>0.3939468122274633</v>
+        <v>0.3951690932636663</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.183458383322479</v>
+        <v>-0.1918277148488159</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.1131842670593659</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.978798320333023</v>
+        <v>-1.943376567110203</v>
       </c>
       <c r="F3" t="n">
-        <v>0.3310993658539899</v>
+        <v>0.3289561045958972</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.1746249021611369</v>
+        <v>-0.1728311254508208</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.1183245596388873</v>
       </c>
       <c r="E4" t="n">
-        <v>-2.058679021446039</v>
+        <v>-2.027532202246546</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2664758304698261</v>
+        <v>0.2648753986140392</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.1918277148488159</v>
+        <v>-0.1889202229827578</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.12313122386903</v>
       </c>
       <c r="E5" t="n">
-        <v>-2.07232721642963</v>
+        <v>-2.048418325901106</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2445497920614102</v>
+        <v>0.2398027794342801</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.2133817016444155</v>
+        <v>-0.210923111396444</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.1222206625866655</v>
       </c>
       <c r="E6" t="n">
-        <v>-2.006324650395339</v>
+        <v>-1.997647918847921</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2528050684211952</v>
+        <v>0.2503226912668305</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.2127815396984954</v>
+        <v>-0.2047092395417348</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.109689694061216</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.856997771107112</v>
+        <v>-1.853204674418416</v>
       </c>
       <c r="F7" t="n">
-        <v>0.3161648481631369</v>
+        <v>0.305055143036171</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.1824971483359241</v>
+        <v>-0.1763113328323453</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.08290482397476427</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.493093478690797</v>
+        <v>-1.496813994818961</v>
       </c>
       <c r="F8" t="n">
-        <v>0.3544873841245709</v>
+        <v>0.3382329980892351</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.1572885168452501</v>
+        <v>-0.147563941575179</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.04216674206953191</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.100770542262084</v>
+        <v>-1.094418828334429</v>
       </c>
       <c r="F9" t="n">
-        <v>0.3122589161492423</v>
+        <v>0.2917125183116305</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.1165781414343475</v>
+        <v>-0.1100690679720922</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>0.01322074183254303</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.6363470528729517</v>
+        <v>-0.6259991386712441</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2979782334238633</v>
+        <v>0.2790078706149685</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.06951422233376031</v>
+        <v>-0.06272153575681719</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>0.08617088790250901</v>
       </c>
       <c r="E11" t="n">
-        <v>0.01214439755197668</v>
+        <v>0.03702794132194395</v>
       </c>
       <c r="F11" t="n">
-        <v>0.2568640905249535</v>
+        <v>0.2269279638688053</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0172896883810233</v>
+        <v>0.03191985565417896</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>0.1791598764537262</v>
       </c>
       <c r="E12" t="n">
-        <v>0.706037123312677</v>
+        <v>0.7479106174541381</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1731799240717362</v>
+        <v>0.1373110989928596</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1121939556036979</v>
+        <v>0.1227571718042975</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.2957752382480512</v>
       </c>
       <c r="E13" t="n">
-        <v>1.415923189059065</v>
+        <v>1.472744619146267</v>
       </c>
       <c r="F13" t="n">
-        <v>0.05651734662675139</v>
+        <v>0.01405954847696558</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2484240082001138</v>
+        <v>0.2634555032785697</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.4356297100822583</v>
       </c>
       <c r="E14" t="n">
-        <v>2.105808126052854</v>
+        <v>2.166393986556945</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.150159154054742</v>
+        <v>-0.2128382623214329</v>
       </c>
       <c r="G14" t="n">
-        <v>0.3914534565009172</v>
+        <v>0.403444497005784</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.5932485832660228</v>
       </c>
       <c r="E15" t="n">
-        <v>2.789088841958815</v>
+        <v>2.855293291737109</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.3973929400572743</v>
+        <v>-0.4746418334501228</v>
       </c>
       <c r="G15" t="n">
-        <v>0.5559990765153617</v>
+        <v>0.5751627841787857</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.7656585596091112</v>
       </c>
       <c r="E16" t="n">
-        <v>3.423178235443691</v>
+        <v>3.495035430054087</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.6662093791272133</v>
+        <v>-0.7647408446145086</v>
       </c>
       <c r="G16" t="n">
-        <v>0.7238260697707108</v>
+        <v>0.7459564316058374</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.9500221993719042</v>
       </c>
       <c r="E17" t="n">
-        <v>4.023151105953988</v>
+        <v>4.07826597798765</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.9430755512888733</v>
+        <v>-1.046153975421325</v>
       </c>
       <c r="G17" t="n">
-        <v>0.8880173258719648</v>
+        <v>0.9127044751840192</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>1.142820528296734</v>
       </c>
       <c r="E18" t="n">
-        <v>4.566122009856765</v>
+        <v>4.614874189390591</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.29957296700676</v>
+        <v>-1.410065586885761</v>
       </c>
       <c r="G18" t="n">
-        <v>1.098108162501894</v>
+        <v>1.122115250259374</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>1.339668285319104</v>
       </c>
       <c r="E19" t="n">
-        <v>5.007591134576484</v>
+        <v>5.047655603990711</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.653570317870656</v>
+        <v>-1.766326963301746</v>
       </c>
       <c r="G19" t="n">
-        <v>1.30698037761968</v>
+        <v>1.336668876481069</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>1.531820681676804</v>
       </c>
       <c r="E20" t="n">
-        <v>5.371161190461941</v>
+        <v>5.400108025780404</v>
       </c>
       <c r="F20" t="n">
-        <v>-1.942196370600695</v>
+        <v>-2.067189244648705</v>
       </c>
       <c r="G20" t="n">
-        <v>1.495251302038948</v>
+        <v>1.521599265353787</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>1.713544224383815</v>
       </c>
       <c r="E21" t="n">
-        <v>5.720743325546858</v>
+        <v>5.739359324442562</v>
       </c>
       <c r="F21" t="n">
-        <v>-2.293105693078215</v>
+        <v>-2.417151360315235</v>
       </c>
       <c r="G21" t="n">
-        <v>1.681890078727237</v>
+        <v>1.711863410544667</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>1.880119678306444</v>
       </c>
       <c r="E22" t="n">
-        <v>5.965459358995775</v>
+        <v>5.961511952375861</v>
       </c>
       <c r="F22" t="n">
-        <v>-2.636820391252816</v>
+        <v>-2.746904974199073</v>
       </c>
       <c r="G22" t="n">
-        <v>1.924675103313569</v>
+        <v>1.94841016644922</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>2.026159932528357</v>
       </c>
       <c r="E23" t="n">
-        <v>6.058355157429918</v>
+        <v>6.037057947239228</v>
       </c>
       <c r="F23" t="n">
-        <v>-2.896750895983213</v>
+        <v>-2.992217205109511</v>
       </c>
       <c r="G23" t="n">
-        <v>2.04230989431729</v>
+        <v>2.051007363167717</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>2.148723857595631</v>
       </c>
       <c r="E24" t="n">
-        <v>6.13740941602594</v>
+        <v>6.105015309042497</v>
       </c>
       <c r="F24" t="n">
-        <v>-3.139669188237414</v>
+        <v>-3.238951771038125</v>
       </c>
       <c r="G24" t="n">
-        <v>2.190871323156198</v>
+        <v>2.197083975169554</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>2.244733429987996</v>
       </c>
       <c r="E25" t="n">
-        <v>6.185152786760424</v>
+        <v>6.150466597873763</v>
       </c>
       <c r="F25" t="n">
-        <v>-3.313008644569212</v>
+        <v>-3.387912392959965</v>
       </c>
       <c r="G25" t="n">
-        <v>2.260620631907753</v>
+        <v>2.265617102091673</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>2.31084517177502</v>
       </c>
       <c r="E26" t="n">
-        <v>6.192042450724971</v>
+        <v>6.142575444157997</v>
       </c>
       <c r="F26" t="n">
-        <v>-3.471997887218482</v>
+        <v>-3.533036613825059</v>
       </c>
       <c r="G26" t="n">
-        <v>2.337348653042659</v>
+        <v>2.322837420301469</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>2.346485667384951</v>
       </c>
       <c r="E27" t="n">
-        <v>6.116353734423243</v>
+        <v>6.058751605869803</v>
       </c>
       <c r="F27" t="n">
-        <v>-3.610676771332042</v>
+        <v>-3.651422522142195</v>
       </c>
       <c r="G27" t="n">
-        <v>2.350520499977709</v>
+        <v>2.333157278152046</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>2.351055398859479</v>
       </c>
       <c r="E28" t="n">
-        <v>5.959397967310252</v>
+        <v>5.887072353620113</v>
       </c>
       <c r="F28" t="n">
-        <v>-3.660800052547197</v>
+        <v>-3.691313469123887</v>
       </c>
       <c r="G28" t="n">
-        <v>2.347686808513538</v>
+        <v>2.325285641897935</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>2.322211589439868</v>
       </c>
       <c r="E29" t="n">
-        <v>5.793684959120512</v>
+        <v>5.712990013904037</v>
       </c>
       <c r="F29" t="n">
-        <v>-3.632042597598864</v>
+        <v>-3.651074257435772</v>
       </c>
       <c r="G29" t="n">
-        <v>2.315829431725633</v>
+        <v>2.292362123767075</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>2.260328128354121</v>
       </c>
       <c r="E30" t="n">
-        <v>5.617608178791468</v>
+        <v>5.525546751843116</v>
       </c>
       <c r="F30" t="n">
-        <v>-3.64910543349123</v>
+        <v>-3.662949413012057</v>
       </c>
       <c r="G30" t="n">
-        <v>2.248323411223158</v>
+        <v>2.21548772166975</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>2.165193693249476</v>
       </c>
       <c r="E31" t="n">
-        <v>5.425980860888056</v>
+        <v>5.329970807478437</v>
       </c>
       <c r="F31" t="n">
-        <v>-3.540173295663688</v>
+        <v>-3.553236881678616</v>
       </c>
       <c r="G31" t="n">
-        <v>2.121586773960326</v>
+        <v>2.091032797658632</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>2.039032501004072</v>
       </c>
       <c r="E32" t="n">
-        <v>5.155815277281151</v>
+        <v>5.066485075123277</v>
       </c>
       <c r="F32" t="n">
-        <v>-3.456891066936448</v>
+        <v>-3.460576512625698</v>
       </c>
       <c r="G32" t="n">
-        <v>2.007154066509532</v>
+        <v>1.982455328704619</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.889203562022238</v>
       </c>
       <c r="E33" t="n">
-        <v>4.781792400837586</v>
+        <v>4.691253335898397</v>
       </c>
       <c r="F33" t="n">
-        <v>-3.30272721172127</v>
+        <v>-3.308315304961636</v>
       </c>
       <c r="G33" t="n">
-        <v>1.854077394900658</v>
+        <v>1.827432400216242</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>1.722697750881956</v>
       </c>
       <c r="E34" t="n">
-        <v>4.423553051666906</v>
+        <v>4.33852766964552</v>
       </c>
       <c r="F34" t="n">
-        <v>-3.154668357520003</v>
+        <v>-3.171660137653527</v>
       </c>
       <c r="G34" t="n">
-        <v>1.682878150223569</v>
+        <v>1.66639748361716</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>1.547951985921282</v>
       </c>
       <c r="E35" t="n">
-        <v>4.052877419897335</v>
+        <v>3.979296589454449</v>
       </c>
       <c r="F35" t="n">
-        <v>-2.999823830829574</v>
+        <v>-3.010861870277022</v>
       </c>
       <c r="G35" t="n">
-        <v>1.538788659786577</v>
+        <v>1.520293425184869</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>1.374792591379681</v>
       </c>
       <c r="E36" t="n">
-        <v>3.681383274579567</v>
+        <v>3.619425092552793</v>
       </c>
       <c r="F36" t="n">
-        <v>-2.845966460754462</v>
+        <v>-2.868294436888855</v>
       </c>
       <c r="G36" t="n">
-        <v>1.451110732742014</v>
+        <v>1.430294140044603</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>1.20878776168091</v>
       </c>
       <c r="E37" t="n">
-        <v>3.367176538746038</v>
+        <v>3.315912705865363</v>
       </c>
       <c r="F37" t="n">
-        <v>-2.761081970409405</v>
+        <v>-2.781024546777036</v>
       </c>
       <c r="G37" t="n">
-        <v>1.329548662500712</v>
+        <v>1.309307834922151</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>1.054956489381374</v>
       </c>
       <c r="E38" t="n">
-        <v>3.01521449318045</v>
+        <v>2.966387903324061</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.660945193700909</v>
+        <v>-2.678264501237847</v>
       </c>
       <c r="G38" t="n">
-        <v>1.205108376585836</v>
+        <v>1.183055474676656</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.9162618827390908</v>
       </c>
       <c r="E39" t="n">
-        <v>2.663048734108828</v>
+        <v>2.616756974585004</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.539337379408851</v>
+        <v>-2.562807127050116</v>
       </c>
       <c r="G39" t="n">
-        <v>1.072103584528064</v>
+        <v>1.056797015224394</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.7914469109073127</v>
       </c>
       <c r="E40" t="n">
-        <v>2.350416813462662</v>
+        <v>2.29829177258642</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.456947464631693</v>
+        <v>-2.483419851764589</v>
       </c>
       <c r="G40" t="n">
-        <v>0.9669837558905359</v>
+        <v>0.9523572481414407</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.6804064368030937</v>
       </c>
       <c r="E41" t="n">
-        <v>2.003176163855781</v>
+        <v>1.96172656458466</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.376930141287085</v>
+        <v>-2.404013059017406</v>
       </c>
       <c r="G41" t="n">
-        <v>0.8216561264797458</v>
+        <v>0.8116290305540078</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.5812717314134144</v>
       </c>
       <c r="E42" t="n">
-        <v>1.682376185506605</v>
+        <v>1.64898668797871</v>
       </c>
       <c r="F42" t="n">
-        <v>-2.28466866035676</v>
+        <v>-2.316289997842763</v>
       </c>
       <c r="G42" t="n">
-        <v>0.7226653907228593</v>
+        <v>0.7063079280931531</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.4904329188838081</v>
       </c>
       <c r="E43" t="n">
-        <v>1.394842500708622</v>
+        <v>1.355845392478704</v>
       </c>
       <c r="F43" t="n">
-        <v>-2.221413177050542</v>
+        <v>-2.259250216153284</v>
       </c>
       <c r="G43" t="n">
-        <v>0.614406910282786</v>
+        <v>0.6002018577213237</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.4078489383968761</v>
       </c>
       <c r="E44" t="n">
-        <v>1.135891528585083</v>
+        <v>1.100861954357411</v>
       </c>
       <c r="F44" t="n">
-        <v>-2.126653461028257</v>
+        <v>-2.156376115447543</v>
       </c>
       <c r="G44" t="n">
-        <v>0.5336107182339708</v>
+        <v>0.5168293607339247</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.3316433753601797</v>
       </c>
       <c r="E45" t="n">
-        <v>0.8884192635979418</v>
+        <v>0.8509024328504919</v>
       </c>
       <c r="F45" t="n">
-        <v>-2.015468581181146</v>
+        <v>-2.045894474140723</v>
       </c>
       <c r="G45" t="n">
-        <v>0.4342357324507329</v>
+        <v>0.4118595725828769</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.2607988075013138</v>
       </c>
       <c r="E46" t="n">
-        <v>0.6902090718303882</v>
+        <v>0.6474389942941073</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.931267201994046</v>
+        <v>-1.957932933981472</v>
       </c>
       <c r="G46" t="n">
-        <v>0.3401322910766286</v>
+        <v>0.3224921652637213</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.1952225093270252</v>
       </c>
       <c r="E47" t="n">
-        <v>0.4953406354507371</v>
+        <v>0.4568839169404186</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.846785869216319</v>
+        <v>-1.869720716424077</v>
       </c>
       <c r="G47" t="n">
-        <v>0.2907415245942476</v>
+        <v>0.2675297733992468</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.1337508205743843</v>
       </c>
       <c r="E48" t="n">
-        <v>0.3547636781911377</v>
+        <v>0.3099326786881252</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.742688267633022</v>
+        <v>-1.762432009860033</v>
       </c>
       <c r="G48" t="n">
-        <v>0.2088364967551044</v>
+        <v>0.1886395834652692</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.07574181847643556</v>
       </c>
       <c r="E49" t="n">
-        <v>0.2355589513654671</v>
+        <v>0.1921264999742378</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.605766564989173</v>
+        <v>-1.6312990643592</v>
       </c>
       <c r="G49" t="n">
-        <v>0.1435457081505783</v>
+        <v>0.1288618678578688</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.0205910562652805</v>
       </c>
       <c r="E50" t="n">
-        <v>0.1036428677156901</v>
+        <v>0.05867646582243952</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.504649645753143</v>
+        <v>-1.531105565027767</v>
       </c>
       <c r="G50" t="n">
-        <v>0.1064710698937708</v>
+        <v>0.08740616937998004</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-0.03304039937776012</v>
       </c>
       <c r="E51" t="n">
-        <v>-0.05302318707584632</v>
+        <v>-0.090259454311992</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.39801721383728</v>
+        <v>-1.432673516610781</v>
       </c>
       <c r="G51" t="n">
-        <v>0.05890579599689678</v>
+        <v>0.03892235494392342</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-0.08551860017432676</v>
       </c>
       <c r="E52" t="n">
-        <v>-0.1204920024170397</v>
+        <v>-0.1577746236246183</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.316340296331241</v>
+        <v>-1.35155406660329</v>
       </c>
       <c r="G52" t="n">
-        <v>0.02327727966465898</v>
+        <v>0.005053459764103758</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-0.1368108852343501</v>
       </c>
       <c r="E53" t="n">
-        <v>-0.2446974688713678</v>
+        <v>-0.2788518069279055</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.220557743334049</v>
+        <v>-1.261155283419753</v>
       </c>
       <c r="G53" t="n">
-        <v>-0.02135854522179414</v>
+        <v>-0.04420556385209964</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-0.1876561999165792</v>
       </c>
       <c r="E54" t="n">
-        <v>-0.3579414409231797</v>
+        <v>-0.3909137527081797</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.161514372221453</v>
+        <v>-1.213916927005616</v>
       </c>
       <c r="G54" t="n">
-        <v>-0.09677950634642875</v>
+        <v>-0.1123324836035042</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-0.2379694187802998</v>
       </c>
       <c r="E55" t="n">
-        <v>-0.4300627311866073</v>
+        <v>-0.4636510628551228</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.102232522124249</v>
+        <v>-1.156983271513892</v>
       </c>
       <c r="G55" t="n">
-        <v>-0.1233549700736951</v>
+        <v>-0.1383718270559091</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-0.2879361236345586</v>
       </c>
       <c r="E56" t="n">
-        <v>-0.4897599372646769</v>
+        <v>-0.5146001766665951</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.041183121905829</v>
+        <v>-1.107746814962728</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.1657346983768572</v>
+        <v>-0.1823153919742531</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-0.3387696973962409</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.5661250555969175</v>
+        <v>-0.5813834411671237</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.033973859506667</v>
+        <v>-1.10399336311802</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.2104638411268528</v>
+        <v>-0.2207580823090065</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.390671425463966</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.6325338288019229</v>
+        <v>-0.6482453854349528</v>
       </c>
       <c r="F58" t="n">
-        <v>-0.9695900229484649</v>
+        <v>-1.04568616626226</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.2493761703827021</v>
+        <v>-0.2627938153504826</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.4438200932184415</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.7366448486401094</v>
+        <v>-0.738316031294399</v>
       </c>
       <c r="F59" t="n">
-        <v>-0.9464709796963298</v>
+        <v>-1.022801942470672</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.2927762959780636</v>
+        <v>-0.3056053674927823</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.4982393239829237</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.8526145561963083</v>
+        <v>-0.8368773828948549</v>
       </c>
       <c r="F60" t="n">
-        <v>-0.9567335050032926</v>
+        <v>-1.037901748664924</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.3195408351151219</v>
+        <v>-0.3299637695600695</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.5524378337800661</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.9583345467797562</v>
+        <v>-0.9508886351580159</v>
       </c>
       <c r="F61" t="n">
-        <v>-0.9652931317807748</v>
+        <v>-1.046442467901427</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.3768056775343204</v>
+        <v>-0.3841662002613159</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.605445268176128</v>
       </c>
       <c r="E62" t="n">
-        <v>-1.051992746059834</v>
+        <v>-1.036379386655761</v>
       </c>
       <c r="F62" t="n">
-        <v>-0.9386670446373383</v>
+        <v>-1.02243111069921</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.3661125482295734</v>
+        <v>-0.3787976784645795</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.6564295964701216</v>
       </c>
       <c r="E63" t="n">
-        <v>-1.137302961037262</v>
+        <v>-1.112829283962069</v>
       </c>
       <c r="F63" t="n">
-        <v>-0.9593653127234604</v>
+        <v>-1.045453786484418</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.4193427653720834</v>
+        <v>-0.4298120537884638</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.7036834137155433</v>
       </c>
       <c r="E64" t="n">
-        <v>-1.177673000710539</v>
+        <v>-1.15851783193659</v>
       </c>
       <c r="F64" t="n">
-        <v>-0.9713996575963764</v>
+        <v>-1.055732779649654</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.4421635574132888</v>
+        <v>-0.4559727714555415</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.7468554012046381</v>
       </c>
       <c r="E65" t="n">
-        <v>-1.237276888925066</v>
+        <v>-1.207926896039273</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.023019074231595</v>
+        <v>-1.1062628779562</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.4868347576989933</v>
+        <v>-0.4975010504939633</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.7857834265141167</v>
       </c>
       <c r="E66" t="n">
-        <v>-1.307605622319532</v>
+        <v>-1.283379573039099</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.050732040020996</v>
+        <v>-1.132422985702601</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.5302110963879616</v>
+        <v>-0.5387914604684533</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.8195440499283138</v>
       </c>
       <c r="E67" t="n">
-        <v>-1.354080967967057</v>
+        <v>-1.332009768437575</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.102106268544162</v>
+        <v>-1.179999238171656</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.5708714583033709</v>
+        <v>-0.5796537061278663</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.8479574253136916</v>
       </c>
       <c r="E68" t="n">
-        <v>-1.409802711074083</v>
+        <v>-1.383079036622366</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.164288291459303</v>
+        <v>-1.241163303477305</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.609554457384763</v>
+        <v>-0.6134048866170735</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.8699911883530936</v>
       </c>
       <c r="E69" t="n">
-        <v>-1.462244910702234</v>
+        <v>-1.435124177889955</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.233972948619122</v>
+        <v>-1.307153061177385</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.5874381237252017</v>
+        <v>-0.5917746597368804</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.8843181578230623</v>
       </c>
       <c r="E70" t="n">
-        <v>-1.497545899631058</v>
+        <v>-1.470101908860103</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.278032398466048</v>
+        <v>-1.358230258330974</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.6305741536675313</v>
+        <v>-0.6425090814701373</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.8908357370180259</v>
       </c>
       <c r="E71" t="n">
-        <v>-1.496340086453127</v>
+        <v>-1.462314441659383</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.374846937248298</v>
+        <v>-1.443237342732058</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.6465967698457028</v>
+        <v>-0.6520781269676376</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.8887030366560807</v>
       </c>
       <c r="E72" t="n">
-        <v>-1.572394145240226</v>
+        <v>-1.538888762783749</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.434924123907982</v>
+        <v>-1.493597273169791</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.6398040832687597</v>
+        <v>-0.6490852462068349</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.8772614204355627</v>
       </c>
       <c r="E73" t="n">
-        <v>-1.487401089014708</v>
+        <v>-1.452839323946102</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.54644324028595</v>
+        <v>-1.604311294254452</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.6747159428058185</v>
+        <v>-0.6774831529162245</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.8565526201880277</v>
       </c>
       <c r="E74" t="n">
-        <v>-1.450586886886872</v>
+        <v>-1.428996304850667</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.65237670310626</v>
+        <v>-1.710120333256705</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.6859171360342966</v>
+        <v>-0.6970616066398371</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.8259432743120114</v>
       </c>
       <c r="E75" t="n">
-        <v>-1.374574302705792</v>
+        <v>-1.353028854799667</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.707429363230893</v>
+        <v>-1.772555473252697</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.6813488301654537</v>
+        <v>-0.686758826568209</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.7848774332925978</v>
       </c>
       <c r="E76" t="n">
-        <v>-1.295337677827421</v>
+        <v>-1.280275686715128</v>
       </c>
       <c r="F76" t="n">
-        <v>-1.765039420753131</v>
+        <v>-1.831061504249078</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.6475836215006812</v>
+        <v>-0.656826969356798</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.7336492925918281</v>
       </c>
       <c r="E77" t="n">
-        <v>-1.198754298981659</v>
+        <v>-1.188999227677751</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.801446805789576</v>
+        <v>-1.859758272090074</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.6098947931223885</v>
+        <v>-0.6149949498213557</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.6716407857028944</v>
       </c>
       <c r="E78" t="n">
-        <v>-1.070023221105861</v>
+        <v>-1.05572790028424</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.848031937158916</v>
+        <v>-1.903534718742989</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.6042975510718716</v>
+        <v>-0.611222590435669</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.5993911120344512</v>
       </c>
       <c r="E79" t="n">
-        <v>-0.8218971211532459</v>
+        <v>-0.8131185328528111</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.892966013256299</v>
+        <v>-1.947242244359432</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.5261844000800709</v>
+        <v>-0.5386109239481359</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.5184804066830236</v>
       </c>
       <c r="E80" t="n">
-        <v>-0.6507570387818014</v>
+        <v>-0.6378340394828634</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.932432150486635</v>
+        <v>-1.976014032443668</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.4918745322509624</v>
+        <v>-0.4984793632594672</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.4295850315401294</v>
       </c>
       <c r="E81" t="n">
-        <v>-0.362775062286408</v>
+        <v>-0.3472818572556539</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.916420512880645</v>
+        <v>-1.957863403024322</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.4621189421151317</v>
+        <v>-0.4713092268723714</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.3347949253396848</v>
       </c>
       <c r="E82" t="n">
-        <v>-0.101022724494565</v>
+        <v>-0.09927225215229805</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.929080026447228</v>
+        <v>-1.958727050702598</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.3610727736776042</v>
+        <v>-0.3721044089579463</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.2362075894007568</v>
       </c>
       <c r="E83" t="n">
-        <v>0.2003342025212365</v>
+        <v>0.2035179884538613</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.903136440541073</v>
+        <v>-1.933078056483311</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.3102700408285515</v>
+        <v>-0.3244110517189552</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.1355364764912428</v>
       </c>
       <c r="E84" t="n">
-        <v>0.5426466930599932</v>
+        <v>0.5513392825450065</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.837580336442161</v>
+        <v>-1.842487148286599</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.2024726604200997</v>
+        <v>-0.2178207043297878</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.03661348121920752</v>
       </c>
       <c r="E85" t="n">
-        <v>0.8319046236111435</v>
+        <v>0.8448221336239906</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.775112870650302</v>
+        <v>-1.768886800382057</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.1183145856010492</v>
+        <v>-0.1381321282299471</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>0.05755388744701412</v>
       </c>
       <c r="E86" t="n">
-        <v>1.114958441038412</v>
+        <v>1.134584468574811</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.630347588103473</v>
+        <v>-1.612961189292093</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.06688180469291569</v>
+        <v>-0.08614248974394262</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>0.1425015636278518</v>
       </c>
       <c r="E87" t="n">
-        <v>1.372429745600161</v>
+        <v>1.397928699332967</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.469820125507445</v>
+        <v>-1.434053767102262</v>
       </c>
       <c r="G87" t="n">
-        <v>0.009331443390814636</v>
+        <v>-0.01517455948024558</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>0.2128001834416308</v>
       </c>
       <c r="E88" t="n">
-        <v>1.63562698547522</v>
+        <v>1.661469324549035</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.349170496598558</v>
+        <v>-1.301918721929533</v>
       </c>
       <c r="G88" t="n">
-        <v>0.04077163443582352</v>
+        <v>0.01341730200434988</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>0.2632690970877781</v>
       </c>
       <c r="E89" t="n">
-        <v>1.841556333327697</v>
+        <v>1.865471932983665</v>
       </c>
       <c r="F89" t="n">
-        <v>-1.157699318388394</v>
+        <v>-1.086104999589677</v>
       </c>
       <c r="G89" t="n">
-        <v>0.08958175643394035</v>
+        <v>0.06203712875132131</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.2890687289706972</v>
       </c>
       <c r="E90" t="n">
-        <v>2.021185901598798</v>
+        <v>2.050976257213203</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.9728085743596644</v>
+        <v>-0.8889713178165833</v>
       </c>
       <c r="G90" t="n">
-        <v>0.1363785302781119</v>
+        <v>0.1043235391909409</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.2868784158895037</v>
       </c>
       <c r="E91" t="n">
-        <v>2.134466468891214</v>
+        <v>2.154509072249833</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.730133335495147</v>
+        <v>-0.6385842419152635</v>
       </c>
       <c r="G91" t="n">
-        <v>0.1271290832152276</v>
+        <v>0.0920037514413069</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.2566234124360465</v>
       </c>
       <c r="E92" t="n">
-        <v>2.262558959818458</v>
+        <v>2.272250599371985</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.5425723587436145</v>
+        <v>-0.4409290779635507</v>
       </c>
       <c r="G92" t="n">
-        <v>0.1287057281646213</v>
+        <v>0.08890230480004302</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>0.2014006483757345</v>
       </c>
       <c r="E93" t="n">
-        <v>2.260014370755065</v>
+        <v>2.268544721340064</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.3218548741627041</v>
+        <v>-0.2239436980036616</v>
       </c>
       <c r="G93" t="n">
-        <v>0.1009726349928871</v>
+        <v>0.06146563307720838</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>0.1295198458892711</v>
       </c>
       <c r="E94" t="n">
-        <v>2.274202345537578</v>
+        <v>2.279542810983184</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.189745445658398</v>
+        <v>-0.1003487621467584</v>
       </c>
       <c r="G94" t="n">
-        <v>0.06055014214140955</v>
+        <v>0.01935426987181547</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>0.05214213728688741</v>
       </c>
       <c r="E95" t="n">
-        <v>2.239725969363718</v>
+        <v>2.250938751085054</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.05547323843434327</v>
+        <v>0.02923559475581076</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03441687090478551</v>
+        <v>-0.005983054881652351</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.0186621710854318</v>
       </c>
       <c r="E96" t="n">
-        <v>2.125096257534334</v>
+        <v>2.138519391788205</v>
       </c>
       <c r="F96" t="n">
-        <v>0.04687877017210183</v>
+        <v>0.1127983869943552</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.008170230428470886</v>
+        <v>-0.04326384632720064</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.07067520873516371</v>
       </c>
       <c r="E97" t="n">
-        <v>1.95168483056268</v>
+        <v>1.972233668082999</v>
       </c>
       <c r="F97" t="n">
-        <v>0.08432972948646283</v>
+        <v>0.1443068891551599</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.0008377640526057337</v>
+        <v>-0.0330720718187406</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.09722423884330658</v>
       </c>
       <c r="E98" t="n">
-        <v>1.750669003682085</v>
+        <v>1.780122683082926</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1160431649946548</v>
+        <v>0.1670325335707925</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.02072788724203665</v>
+        <v>-0.05098361233280081</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.09800419885667418</v>
       </c>
       <c r="E99" t="n">
-        <v>1.546980504395981</v>
+        <v>1.574808135272611</v>
       </c>
       <c r="F99" t="n">
-        <v>0.136177256454785</v>
+        <v>0.1753451424741918</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.02261437189521839</v>
+        <v>-0.0487903375792148</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.08250657247526304</v>
       </c>
       <c r="E100" t="n">
-        <v>1.413320047610704</v>
+        <v>1.448412443668081</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1527475814006762</v>
+        <v>0.1848733232863499</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.05716698815367263</v>
+        <v>-0.08375099077041348</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.06357152355300452</v>
       </c>
       <c r="E101" t="n">
-        <v>1.255015135960746</v>
+        <v>1.296723341598808</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1862486944124168</v>
+        <v>0.2112908175583386</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.0711323418891729</v>
+        <v>-0.0886895184900425</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.05388029202776728</v>
       </c>
       <c r="E102" t="n">
-        <v>1.084655142134862</v>
+        <v>1.131051808015087</v>
       </c>
       <c r="F102" t="n">
-        <v>0.1772517545097062</v>
+        <v>0.2038077007753167</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.09067298053082719</v>
+        <v>-0.1128088316520445</v>
       </c>
     </row>
   </sheetData>
